--- a/TestData/testsuite.xlsx
+++ b/TestData/testsuite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLACKPEARL COMPUTERS\PycharmProjects\pythonProject\PythonSelFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49E33F3-AB5B-425F-B3F6-5AD689165DBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90432C8D-7FFE-4756-AB9F-85429BBDD2A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="630" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>TestCase</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -112,6 +109,12 @@
   </si>
   <si>
     <t>Trello2</t>
+  </si>
+  <si>
+    <t>Testcase2</t>
+  </si>
+  <si>
+    <t>Testcase3</t>
   </si>
 </sst>
 </file>
@@ -452,11 +455,12 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
@@ -545,16 +549,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -586,16 +590,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
